--- a/Ships.xlsx
+++ b/Ships.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\uOttahack-2026\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5306931-9F9D-4B5B-A2DD-224A73928BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-21792" yWindow="1248" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Ship type</t>
   </si>
@@ -119,32 +128,32 @@
   </si>
   <si>
     <t>Low–Medium (ice-capable)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durability to determine the % of duel increase or decrease so its dunction of durability and weather </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -154,7 +163,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -170,50 +179,52 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FFE1E3E1"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -403,20 +414,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -457,10 +473,10 @@
         <v>10</v>
       </c>
       <c r="J2" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -478,10 +494,10 @@
         <v>15</v>
       </c>
       <c r="J3" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -498,10 +514,10 @@
         <v>20</v>
       </c>
       <c r="J4" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -518,17 +534,17 @@
         <v>25</v>
       </c>
       <c r="J5" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -538,10 +554,10 @@
         <v>30</v>
       </c>
       <c r="J6" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -558,15 +574,13 @@
         <v>35</v>
       </c>
       <c r="J7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Ships.xlsx
+++ b/Ships.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\uOttahack-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5306931-9F9D-4B5B-A2DD-224A73928BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AD44BC-7F11-49EF-941C-A8352C220CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21792" yWindow="1248" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="2220" windowWidth="17280" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Ship type</t>
   </si>
@@ -58,9 +58,6 @@
     <t>General Cargo / Bulk Carriers</t>
   </si>
   <si>
-    <t>Bulk Carrier (e.g., Nordic Orion)</t>
-  </si>
-  <si>
     <t>1.8–3.5 tons/hour</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Tugboats &amp; Support Vessels</t>
   </si>
   <si>
-    <t>Harbor Tug / Ice Support</t>
-  </si>
-  <si>
     <t>0.7–1.1 tons/hour</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>Arctic Patrol / Icebreaker</t>
   </si>
   <si>
-    <t>AOPS / Icebreaker</t>
-  </si>
-  <si>
     <t>4.0–7.0 tons/hour</t>
   </si>
   <si>
@@ -128,6 +119,36 @@
   </si>
   <si>
     <t>Low–Medium (ice-capable)</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>Bulk Carrier</t>
+  </si>
+  <si>
+    <t>Harbor Tug</t>
+  </si>
+  <si>
+    <t>Icebreaker</t>
+  </si>
+  <si>
+    <t>tawler1</t>
+  </si>
+  <si>
+    <t>carrier2</t>
+  </si>
+  <si>
+    <t>tug3</t>
+  </si>
+  <si>
+    <t>cruiser4</t>
+  </si>
+  <si>
+    <t>vsl5</t>
+  </si>
+  <si>
+    <t>breaker6</t>
   </si>
 </sst>
 </file>
@@ -424,15 +445,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +477,11 @@
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -475,109 +502,127 @@
       <c r="J2" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="J3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="J5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="J6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
